--- a/Capacity Expansion Excel.xlsx
+++ b/Capacity Expansion Excel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ralf-\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ralf-\Documents\GitHub\Capacity_Expansion_Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7AD574-0EC9-4C57-9C28-1B89B8B5C040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEB9A6A1-53F3-4612-8DA7-D3F1E7A17FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="7" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="135">
   <si>
     <t>Gen_Type</t>
   </si>
@@ -447,6 +447,9 @@
   </si>
   <si>
     <t xml:space="preserve">Projected-&gt; </t>
+  </si>
+  <si>
+    <t>hi</t>
   </si>
 </sst>
 </file>
@@ -1315,11 +1318,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9393E44C-E1AB-40EC-BFDB-1A0E243128A1}">
-  <dimension ref="B3:T369"/>
+  <dimension ref="A1:T369"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1337,7 +1338,12 @@
     <col min="20" max="20" width="15.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="E3" t="s">
         <v>120</v>
       </c>
@@ -1384,7 +1390,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>36</v>
       </c>
@@ -1440,7 +1446,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>1</v>
       </c>
@@ -1496,7 +1502,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>2</v>
       </c>
@@ -1543,7 +1549,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>3</v>
       </c>
@@ -1578,7 +1584,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>4</v>
       </c>
@@ -1613,7 +1619,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>5</v>
       </c>
@@ -1639,7 +1645,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>6</v>
       </c>
@@ -1662,7 +1668,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>7</v>
       </c>
@@ -1682,7 +1688,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>8</v>
       </c>
@@ -1699,7 +1705,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>9</v>
       </c>
@@ -1716,7 +1722,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>10</v>
       </c>
@@ -1733,7 +1739,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>11</v>
       </c>
@@ -1747,7 +1753,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>12</v>
       </c>
@@ -3613,7 +3619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0590E49E-D91C-4DF2-9C08-D603E53052E6}">
   <dimension ref="B3:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
